--- a/Yamit_DailyTask.xlsx
+++ b/Yamit_DailyTask.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Desktop\Group 2- Sept. 5, 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danica\SE_Grp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03A5BC6-6D86-44B1-BEE7-F0AD7F629B46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C73249-7502-4F56-9522-F83C6CF766DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Aug 28-Sep 5" sheetId="1" r:id="rId1"/>
+    <sheet name="Sep 11-13" sheetId="2" r:id="rId2"/>
+    <sheet name="Sep 16-20" sheetId="3" r:id="rId3"/>
+    <sheet name="Sep 23-27" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,25 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>DATE STARTED</t>
-  </si>
-  <si>
-    <t>TIME STARTED</t>
-  </si>
-  <si>
-    <t>DATE END</t>
-  </si>
-  <si>
-    <t>TIME END</t>
-  </si>
-  <si>
-    <t>Reseach</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>8AM</t>
   </si>
@@ -90,23 +75,42 @@
   </si>
   <si>
     <t>5:00PM</t>
+  </si>
+  <si>
+    <t>Research for System Proposals</t>
+  </si>
+  <si>
+    <t>Arduino Session with/ Sir Rubio</t>
+  </si>
+  <si>
+    <t>11:00am</t>
+  </si>
+  <si>
+    <t>1:30pm</t>
+  </si>
+  <si>
+    <t>ABSENT</t>
+  </si>
+  <si>
+    <t>Visitation for Client</t>
+  </si>
+  <si>
+    <t>Docu. Chapter 3</t>
+  </si>
+  <si>
+    <t>10:30am</t>
+  </si>
+  <si>
+    <t>Sep 23 and 25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -119,6 +123,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,51 +154,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -233,10 +205,51 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -249,7 +262,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -262,7 +277,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -272,9 +289,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -287,9 +302,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -302,9 +315,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -314,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,52 +333,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -684,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E34E7C-B1B8-4314-A30C-B813676F7C49}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,134 +729,313 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9">
+        <v>43594</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43594</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5">
-        <v>43594</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="E4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
-        <v>43719</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15">
-        <v>43719</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D85209-358E-4A9F-9702-54C4C19CCC94}">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="16">
+        <v>43719</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>43719</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF215C45-1579-4252-AD80-D40DF86954BA}">
+  <dimension ref="B3:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="19">
+        <v>43728</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC96982-B8AF-4CE7-B32C-F11BCC48D800}">
+  <dimension ref="B3:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
+        <v>43731</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Yamit_DailyTask.xlsx
+++ b/Yamit_DailyTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danica\SE_Grp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C73249-7502-4F56-9522-F83C6CF766DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADE0081-4294-44CA-B634-551598FBC071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
   </bookViews>
@@ -966,7 +966,7 @@
   <dimension ref="B3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Yamit_DailyTask.xlsx
+++ b/Yamit_DailyTask.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danica\SE_Grp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADE0081-4294-44CA-B634-551598FBC071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993A8953-CBDF-4E08-8E3B-577FE5F26450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 28-Sep 5" sheetId="1" r:id="rId1"/>
     <sheet name="Sep 11-13" sheetId="2" r:id="rId2"/>
     <sheet name="Sep 16-20" sheetId="3" r:id="rId3"/>
     <sheet name="Sep 23-27" sheetId="4" r:id="rId4"/>
+    <sheet name="Sep 30- Oct 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>8AM</t>
   </si>
@@ -102,6 +103,12 @@
   </si>
   <si>
     <t>Sep 23 and 25</t>
+  </si>
+  <si>
+    <t>2:30PM</t>
+  </si>
+  <si>
+    <t>5PM</t>
   </si>
 </sst>
 </file>
@@ -965,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC96982-B8AF-4CE7-B32C-F11BCC48D800}">
   <dimension ref="B3:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,4 +1045,73 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAD2DF2-4F5B-444A-902A-8BC8193D14A7}">
+  <dimension ref="B3:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="16">
+        <v>43741</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>